--- a/MedicalLink/Templates/BC_BenhNhanRaVaoVien.xlsx
+++ b/MedicalLink/Templates/BC_BenhNhanRaVaoVien.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>STT</t>
   </si>
@@ -125,7 +125,10 @@
     <t>&amp;=[DATA1].BUOI_RAVIEN</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
+    <t>&amp;=[DATA].SOYTE</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -269,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -306,32 +309,38 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -623,7 +632,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C8"/>
+      <selection activeCell="D2" sqref="D2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,103 +653,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="26" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="25" t="s">
+        <v>33</v>
+      </c>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="19"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="18"/>
     </row>
     <row r="9" spans="1:14" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -787,14 +798,14 @@
       </c>
     </row>
     <row r="10" spans="1:14" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -811,6 +822,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="D3:N3"/>
     <mergeCell ref="G7:G8"/>
@@ -821,13 +839,6 @@
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
